--- a/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="157">
   <si>
     <t>Scenario Name</t>
   </si>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\A_Test\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2991A7-6A22-4550-942B-BB0F5232F75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BD31DE-D825-4482-A57A-BFC22DCE54D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -275,242 +275,13 @@
     <t>50</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>B07H1B3PY9</t>
-  </si>
-  <si>
-    <t>135103.76</t>
-  </si>
-  <si>
-    <t>B0002KVQBA</t>
-  </si>
-  <si>
-    <t>134406.76</t>
-  </si>
-  <si>
-    <t>B00378KMG4</t>
-  </si>
-  <si>
-    <t>95169.36</t>
-  </si>
-  <si>
-    <t>B00378KMEG</t>
-  </si>
-  <si>
-    <t>74342.4</t>
-  </si>
-  <si>
-    <t>B07QRC9NP5</t>
-  </si>
-  <si>
-    <t>45298.0</t>
-  </si>
-  <si>
-    <t>B00006BMQT</t>
-  </si>
-  <si>
-    <t>40579.67</t>
-  </si>
-  <si>
-    <t>B07QQ87Y6M</t>
-  </si>
-  <si>
-    <t>36960.0</t>
-  </si>
-  <si>
-    <t>B002RJLHB8</t>
-  </si>
-  <si>
-    <t>34734.15</t>
-  </si>
-  <si>
-    <t>B01LW8H3NX</t>
-  </si>
-  <si>
-    <t>33468.48</t>
-  </si>
-  <si>
-    <t>B00006I5O6</t>
-  </si>
-  <si>
-    <t>28342.34</t>
-  </si>
-  <si>
-    <t>B00378KMF0</t>
-  </si>
-  <si>
-    <t>28276.6</t>
-  </si>
-  <si>
-    <t>B00378KMGE</t>
-  </si>
-  <si>
-    <t>27036.36</t>
-  </si>
-  <si>
-    <t>B013LIN5W2</t>
-  </si>
-  <si>
-    <t>25936.61</t>
-  </si>
-  <si>
-    <t>B075LQ2TNQ</t>
-  </si>
-  <si>
-    <t>18293.24</t>
-  </si>
-  <si>
-    <t>B07RR6X7N9</t>
-  </si>
-  <si>
-    <t>17094.0</t>
-  </si>
-  <si>
-    <t>B07QQ7V8H9</t>
-  </si>
-  <si>
-    <t>16632.0</t>
-  </si>
-  <si>
-    <t>B00378KMFA</t>
-  </si>
-  <si>
-    <t>15718.43</t>
-  </si>
-  <si>
-    <t>B000092TT0</t>
-  </si>
-  <si>
-    <t>14852.59</t>
-  </si>
-  <si>
-    <t>B013LIN554</t>
-  </si>
-  <si>
-    <t>14499.03</t>
-  </si>
-  <si>
-    <t>B00005T3BD</t>
-  </si>
-  <si>
-    <t>13873.2</t>
-  </si>
-  <si>
-    <t>B01LW76AKC</t>
-  </si>
-  <si>
-    <t>13566.0</t>
-  </si>
-  <si>
-    <t>B00005T3C8</t>
-  </si>
-  <si>
-    <t>13404.54</t>
-  </si>
-  <si>
-    <t>B075M34866</t>
-  </si>
-  <si>
-    <t>13263.06</t>
-  </si>
-  <si>
-    <t>B07RN2XNK1</t>
-  </si>
-  <si>
-    <t>13200.0</t>
-  </si>
-  <si>
-    <t>B078HJMVTK</t>
-  </si>
-  <si>
-    <t>12740.0</t>
-  </si>
-  <si>
-    <t>813.0</t>
-  </si>
-  <si>
-    <t>1283.0</t>
-  </si>
-  <si>
-    <t>428.0</t>
-  </si>
-  <si>
-    <t>701.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>269.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>420.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>265.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t/>
+    <t>Last Run Date And Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -610,11 +381,118 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -652,6 +530,110 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -687,216 +669,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <extLst>
@@ -920,36 +692,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A1:I4" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EFDA0D10-DAB9-4DB5-A509-C9E0D66B0934}" name="TestID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Scenario Name " dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="TestData" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Columname" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{9628BC46-B7B8-4319-87FC-7736DF04D7A0}" name="Difference" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{51FA0C3F-3EEF-43DF-B81F-5EB125970849}" name="Status" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EFDA0D10-DAB9-4DB5-A509-C9E0D66B0934}" name="TestID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Scenario Name " dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="TestData" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Columname" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{9628BC46-B7B8-4319-87FC-7736DF04D7A0}" name="Difference" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{51FA0C3F-3EEF-43DF-B81F-5EB125970849}" name="Status" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D7EC7D3-B8C5-4CD6-B81E-DD605F1158F5}" name="Table1" displayName="Table1" ref="A1:I51" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D7EC7D3-B8C5-4CD6-B81E-DD605F1158F5}" name="Table1" displayName="Table1" ref="A1:I51" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I51" xr:uid="{58023CD7-9179-421F-8E4D-220C140C11FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66655932-DF3E-4F71-9A38-2694283919F9}" name="TestID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C926FDE5-10D4-4479-BCAF-D48FE648A502}" name="Module" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CAE470C0-BBD2-4432-971C-9297D3F81E96}" name="Scenario Name " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{08081835-A686-49DA-BA21-C6870155F04C}" name="TestData" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{EF87C231-A92D-47C6-BC12-A67DCEA15C6B}" name="Asins" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E1E79FBC-4C2A-4384-8CCE-FA4326B489F6}" name="Prestage Value" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{DE522374-8968-4FEB-8694-8FE43D09F13F}" name="Mart Value" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{86C8BBD2-1144-4CFF-9F3D-72FBBA7DA20B}" name="Difference" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{AFF141D2-C7D5-4326-9BA4-56B045AB3110}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{66655932-DF3E-4F71-9A38-2694283919F9}" name="TestID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C926FDE5-10D4-4479-BCAF-D48FE648A502}" name="Module" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CAE470C0-BBD2-4432-971C-9297D3F81E96}" name="Scenario Name " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{08081835-A686-49DA-BA21-C6870155F04C}" name="TestData" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EF87C231-A92D-47C6-BC12-A67DCEA15C6B}" name="Asins" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E1E79FBC-4C2A-4384-8CCE-FA4326B489F6}" name="Prestage Value" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DE522374-8968-4FEB-8694-8FE43D09F13F}" name="Mart Value" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{86C8BBD2-1144-4CFF-9F3D-72FBBA7DA20B}" name="Difference" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AFF141D2-C7D5-4326-9BA4-56B045AB3110}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1276,55 +1048,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,21 +1127,21 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="54.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1407,18 +1189,10 @@
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
-        <v>1234785.24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1234785.2400000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1436,18 +1210,10 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="n">
-        <v>7587.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7587.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1465,18 +1231,10 @@
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="n">
-        <v>85.61270142180105</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85.39605633802816</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.21664507999999216</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,22 +1257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="54.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1559,21 +1317,11 @@
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1586,21 +1334,11 @@
         <v>52</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1613,21 +1351,11 @@
         <v>52</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1640,21 +1368,11 @@
         <v>52</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1667,21 +1385,11 @@
         <v>52</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1694,21 +1402,11 @@
         <v>52</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1721,21 +1419,11 @@
         <v>52</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1748,21 +1436,11 @@
         <v>52</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1775,21 +1453,11 @@
         <v>52</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1802,21 +1470,11 @@
         <v>52</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1829,21 +1487,11 @@
         <v>52</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1856,21 +1504,11 @@
         <v>52</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1883,21 +1521,11 @@
         <v>52</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1910,21 +1538,11 @@
         <v>52</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1937,21 +1555,11 @@
         <v>52</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1964,21 +1572,11 @@
         <v>52</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1991,21 +1589,11 @@
         <v>52</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2018,21 +1606,11 @@
         <v>52</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2045,21 +1623,11 @@
         <v>52</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2072,21 +1640,11 @@
         <v>52</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2099,21 +1657,11 @@
         <v>52</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>80</v>
-      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2126,21 +1674,11 @@
         <v>52</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>80</v>
-      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2153,21 +1691,11 @@
         <v>52</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2180,21 +1708,11 @@
         <v>52</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2207,21 +1725,11 @@
         <v>52</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>80</v>
-      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2236,21 +1744,11 @@
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>80</v>
-      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2263,21 +1761,11 @@
         <v>53</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2290,21 +1778,11 @@
         <v>53</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2317,21 +1795,11 @@
         <v>53</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2344,21 +1812,11 @@
         <v>53</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>80</v>
-      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2371,21 +1829,11 @@
         <v>53</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>80</v>
-      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2398,21 +1846,11 @@
         <v>53</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2425,21 +1863,11 @@
         <v>53</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2452,21 +1880,11 @@
         <v>53</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2479,21 +1897,11 @@
         <v>53</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2506,21 +1914,11 @@
         <v>53</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2533,21 +1931,11 @@
         <v>53</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
-      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2560,21 +1948,11 @@
         <v>53</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -2587,21 +1965,11 @@
         <v>53</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2614,21 +1982,11 @@
         <v>53</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -2641,21 +1999,11 @@
         <v>53</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>80</v>
-      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2668,21 +2016,11 @@
         <v>53</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2695,21 +2033,11 @@
         <v>53</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>80</v>
-      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2722,21 +2050,11 @@
         <v>53</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2749,21 +2067,11 @@
         <v>53</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>80</v>
-      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2776,21 +2084,11 @@
         <v>53</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -2803,21 +2101,11 @@
         <v>53</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -2830,21 +2118,11 @@
         <v>53</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2857,21 +2135,11 @@
         <v>53</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -2884,21 +2152,11 @@
         <v>53</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" t="s">
-        <v>155</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71C155-6400-4354-8B2F-816FC896ADD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100FAD7-A02C-45FB-AB07-0E3F240FAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
   <si>
     <t>Execution status</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>f0_</t>
-  </si>
-  <si>
-    <t>Columname</t>
   </si>
   <si>
     <t>4</t>
@@ -188,182 +179,136 @@
     <t>LAST_WEEK_BBX_PCNT</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>1261187.72</t>
+  </si>
+  <si>
+    <t>7713.0</t>
+  </si>
+  <si>
+    <t>88.11309859154933</t>
+  </si>
+  <si>
+    <t>1261187.7200000002</t>
+  </si>
+  <si>
+    <t>88.21553488372092</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>B07H1B3PY9</t>
   </si>
   <si>
-    <t>135103.76</t>
+    <t>174927.28</t>
   </si>
   <si>
     <t>B0002KVQBA</t>
   </si>
   <si>
-    <t>134406.76</t>
+    <t>106110.6</t>
+  </si>
+  <si>
+    <t>B00378KMEG</t>
+  </si>
+  <si>
+    <t>83846.4</t>
   </si>
   <si>
     <t>B00378KMG4</t>
   </si>
   <si>
-    <t>95169.36</t>
-  </si>
-  <si>
-    <t>B00378KMEG</t>
-  </si>
-  <si>
-    <t>74342.4</t>
-  </si>
-  <si>
-    <t>B07QRC9NP5</t>
-  </si>
-  <si>
-    <t>45298.0</t>
+    <t>81858.96</t>
   </si>
   <si>
     <t>B00006BMQT</t>
   </si>
   <si>
-    <t>40579.67</t>
+    <t>55882.2</t>
+  </si>
+  <si>
+    <t>B01LW8H3NX</t>
+  </si>
+  <si>
+    <t>48110.94</t>
+  </si>
+  <si>
+    <t>B002RJLHB8</t>
+  </si>
+  <si>
+    <t>47890.59</t>
+  </si>
+  <si>
+    <t>B00378KMF0</t>
+  </si>
+  <si>
+    <t>36724.6</t>
   </si>
   <si>
     <t>B07QQ87Y6M</t>
   </si>
   <si>
-    <t>36960.0</t>
-  </si>
-  <si>
-    <t>B002RJLHB8</t>
-  </si>
-  <si>
-    <t>34734.15</t>
-  </si>
-  <si>
-    <t>B01LW8H3NX</t>
-  </si>
-  <si>
-    <t>33468.48</t>
-  </si>
-  <si>
-    <t>B00006I5O6</t>
-  </si>
-  <si>
-    <t>28342.34</t>
-  </si>
-  <si>
-    <t>813.0</t>
-  </si>
-  <si>
-    <t>1283.0</t>
-  </si>
-  <si>
-    <t>428.0</t>
-  </si>
-  <si>
-    <t>701.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>269.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>420.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>05/22/2020 00:57:02</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>05/22/2020 01:08:48</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>05/22/2020 01:10:48</t>
-  </si>
-  <si>
-    <t>B00378KMF0</t>
-  </si>
-  <si>
-    <t>28276.6</t>
-  </si>
-  <si>
-    <t>B00378KMGE</t>
-  </si>
-  <si>
-    <t>27036.36</t>
-  </si>
-  <si>
-    <t>B013LIN5W2</t>
-  </si>
-  <si>
-    <t>25936.61</t>
-  </si>
-  <si>
-    <t>B075LQ2TNQ</t>
-  </si>
-  <si>
-    <t>18293.24</t>
-  </si>
-  <si>
-    <t>B07RR6X7N9</t>
-  </si>
-  <si>
-    <t>17094.0</t>
-  </si>
-  <si>
-    <t>B07QQ7V8H9</t>
-  </si>
-  <si>
-    <t>16632.0</t>
-  </si>
-  <si>
-    <t>B00378KMFA</t>
-  </si>
-  <si>
-    <t>15718.43</t>
-  </si>
-  <si>
-    <t>B000092TT0</t>
-  </si>
-  <si>
-    <t>14852.59</t>
-  </si>
-  <si>
-    <t>B013LIN554</t>
-  </si>
-  <si>
-    <t>14499.03</t>
-  </si>
-  <si>
-    <t>B00005T3BD</t>
-  </si>
-  <si>
-    <t>13873.2</t>
-  </si>
-  <si>
-    <t>05/22/2020 01:11:42</t>
+    <t>32340.0</t>
+  </si>
+  <si>
+    <t>B07RN2XNK1</t>
+  </si>
+  <si>
+    <t>28512.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>1002.0</t>
+  </si>
+  <si>
+    <t>791.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>05/30/2020 00:10:19</t>
+  </si>
+  <si>
+    <t>05/30/2020 00:10:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +740,7 @@
     <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Scenario Name " dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="TestData" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Columname" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Week" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="15"/>
     <tableColumn id="8" xr3:uid="{9628BC46-B7B8-4319-87FC-7736DF04D7A0}" name="Difference" dataDxfId="14"/>
@@ -1147,64 +1092,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -1227,137 +1172,137 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="57.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="28.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="57.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>1234785.24</v>
-      </c>
-      <c r="G2">
-        <v>1234785.2400000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>-2.3283064365386963E-10</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>7587</v>
-      </c>
-      <c r="G3">
-        <v>7587</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>85.612701421801049</v>
-      </c>
-      <c r="G4">
-        <v>85.39605633802816</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.21664507999999216</v>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>-0.10243629217158912</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1381,559 +1326,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
+        <v>69</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
+        <v>86</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100FAD7-A02C-45FB-AB07-0E3F240FAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50D9A1-C091-45DC-900E-059AC7ED467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
   <si>
     <t>Execution status</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario Name </t>
-  </si>
-  <si>
-    <t>TestData</t>
   </si>
   <si>
     <t>Prestage Value</t>
@@ -185,6 +179,36 @@
     <t>Week</t>
   </si>
   <si>
+    <t xml:space="preserve">Compare All 4 weeks cogs in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare All 4 weeks Units in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare All 4 weeks BBX% in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_UNITS</t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_BBX_PCNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario  </t>
+  </si>
+  <si>
+    <t>Logical Name/Metric</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2020-05-17</t>
   </si>
   <si>
@@ -197,6 +221,36 @@
     <t>88.11309859154933</t>
   </si>
   <si>
+    <t>1261187.7199999997</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>1234785.2399999995</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>1382488.8800000001</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>925732.1399999998</t>
+  </si>
+  <si>
+    <t>7587.0</t>
+  </si>
+  <si>
+    <t>9022.0</t>
+  </si>
+  <si>
+    <t>6485.0</t>
+  </si>
+  <si>
     <t>1261187.7200000002</t>
   </si>
   <si>
@@ -209,6 +263,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>05/30/2020 13:48:07</t>
+  </si>
+  <si>
     <t>B07H1B3PY9</t>
   </si>
   <si>
@@ -299,16 +356,14 @@
     <t>53.0</t>
   </si>
   <si>
-    <t>05/30/2020 00:10:19</t>
-  </si>
-  <si>
-    <t>05/30/2020 00:10:50</t>
+    <t>05/30/2020 13:48:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -414,15 +469,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -558,7 +616,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -698,7 +756,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -733,13 +791,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
-  <autoFilter ref="A1:I4" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A1:I16" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EFDA0D10-DAB9-4DB5-A509-C9E0D66B0934}" name="TestID" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Scenario Name " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="TestData" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Test Scenario  " dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="Logical Name/Metric" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Week" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="15"/>
@@ -756,8 +814,8 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66655932-DF3E-4F71-9A38-2694283919F9}" name="TestID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{C926FDE5-10D4-4479-BCAF-D48FE648A502}" name="Module" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CAE470C0-BBD2-4432-971C-9297D3F81E96}" name="Scenario Name " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{08081835-A686-49DA-BA21-C6870155F04C}" name="TestData" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CAE470C0-BBD2-4432-971C-9297D3F81E96}" name="Test Scenario  " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{08081835-A686-49DA-BA21-C6870155F04C}" name="Logical Name/Metric" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{EF87C231-A92D-47C6-BC12-A67DCEA15C6B}" name="Asins" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{E1E79FBC-4C2A-4384-8CCE-FA4326B489F6}" name="Prestage Value" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{DE522374-8968-4FEB-8694-8FE43D09F13F}" name="Mart Value" dataDxfId="2"/>
@@ -1097,61 +1155,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,143 +1227,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I4"/>
+      <selection activeCell="E2" sqref="E2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="57.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="58.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="28.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2">
+        <v>71</v>
+      </c>
+      <c r="H2" t="n">
         <v>-2.3283064365386963E-10</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.10243629217158912</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4">
-        <v>-0.10243629217158912</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1326,559 +1679,523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
+++ b/i2o_SU_SanityBQTest/Testcases/testscenarios.xlsx
@@ -3,19 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\i2o_SU_SanityBQTest\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50D9A1-C091-45DC-900E-059AC7ED467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45476F22-DFCD-442C-9936-EE4D52907D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="HompeageTest" sheetId="2" r:id="rId2"/>
-    <sheet name="AsinLevelTest" sheetId="9" r:id="rId3"/>
+    <sheet name="GenericTests" sheetId="10" r:id="rId2"/>
+    <sheet name="Hompage" sheetId="2" r:id="rId3"/>
+    <sheet name="SalesAnalysis" sheetId="11" r:id="rId4"/>
+    <sheet name="A$E" sheetId="13" r:id="rId5"/>
+    <sheet name="PriceMonitoring" sheetId="14" r:id="rId6"/>
+    <sheet name="ResellerMgmt" sheetId="15" r:id="rId7"/>
+    <sheet name="BCM" sheetId="16" r:id="rId8"/>
+    <sheet name="DetailReports" sheetId="17" r:id="rId9"/>
+    <sheet name="UnscrappedReport" sheetId="18" r:id="rId10"/>
+    <sheet name="AsinLevelTest" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="288">
   <si>
     <t>Execution status</t>
   </si>
@@ -65,9 +73,6 @@
     <t>Homepage</t>
   </si>
   <si>
-    <t>HompeageTest</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -111,6 +116,757 @@
   </si>
   <si>
     <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Last Run Date And Time</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PRODUCT_UNITS</t>
+  </si>
+  <si>
+    <t>PRODUCT_COGS</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_UNITS</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_BBX_PCNT</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_UNITS</t>
+  </si>
+  <si>
+    <t>LAST_4WEEKS_BBX_PCNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario  </t>
+  </si>
+  <si>
+    <t>Logical Name/Metric</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>1261188.0</t>
+  </si>
+  <si>
+    <t>7713.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>1234785.0</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>1382489.0</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>925732.0</t>
+  </si>
+  <si>
+    <t>7587.0</t>
+  </si>
+  <si>
+    <t>9022.0</t>
+  </si>
+  <si>
+    <t>6485.0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>B07H1B3PY9</t>
+  </si>
+  <si>
+    <t>174927.28</t>
+  </si>
+  <si>
+    <t>B0002KVQBA</t>
+  </si>
+  <si>
+    <t>106110.6</t>
+  </si>
+  <si>
+    <t>B00378KMEG</t>
+  </si>
+  <si>
+    <t>83846.4</t>
+  </si>
+  <si>
+    <t>B00378KMG4</t>
+  </si>
+  <si>
+    <t>81858.96</t>
+  </si>
+  <si>
+    <t>B00006BMQT</t>
+  </si>
+  <si>
+    <t>55882.2</t>
+  </si>
+  <si>
+    <t>B01LW8H3NX</t>
+  </si>
+  <si>
+    <t>48110.94</t>
+  </si>
+  <si>
+    <t>B002RJLHB8</t>
+  </si>
+  <si>
+    <t>47890.59</t>
+  </si>
+  <si>
+    <t>B00378KMF0</t>
+  </si>
+  <si>
+    <t>36724.6</t>
+  </si>
+  <si>
+    <t>B07QQ87Y6M</t>
+  </si>
+  <si>
+    <t>32340.0</t>
+  </si>
+  <si>
+    <t>B07RN2XNK1</t>
+  </si>
+  <si>
+    <t>28512.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>1002.0</t>
+  </si>
+  <si>
+    <t>791.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>376.0</t>
+  </si>
+  <si>
+    <t>205.0</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>GenericTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in Hompage header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in Sales header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in A$E header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in Price monitor header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in Reseller header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in BCM header and weekly data points
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in All detail reports in header  and grid data dates for last week
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Data Updated date there in multivalidation header  and grid data dates for last week
+</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>Unscrapped</t>
+  </si>
+  <si>
+    <t>Detal Reports</t>
+  </si>
+  <si>
+    <t>Validate COGS for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate UNITS for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate WOS for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate BBX win % for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate reviews for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate rep oos% for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate change in revenue(Graph) in prestage and Data mart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate last weeks Units in Prestage and  Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate last weeks buy box % value in Prestage and  Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate All 4 weeks Units in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate All 4 weeks BBX% in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate change in Units(Graph) in prestage and Data mart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate change in BBX win%(Graph) in prestage and Data mart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate last weeks revenue in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate All 4 weeks revenue in Prestage and Data Mart
+ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">validate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>weeks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate recent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>weeks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate recent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">validate last </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">validate last </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">validate last </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Data Mart
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Brand Wise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Mart for last week
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category Wise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Mart for last week
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>P Group Wise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> revenue in Prestage and Mart for last week
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>Validate recent week ROR sale in pretage and mart</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>DetailReports</t>
+  </si>
+  <si>
+    <t>PriceMonitoring</t>
+  </si>
+  <si>
+    <t>Hompage</t>
+  </si>
+  <si>
+    <t>SalesAnalysis</t>
+  </si>
+  <si>
+    <t>ResellerMgmt</t>
+  </si>
+  <si>
+    <t>UnscrappedReport</t>
+  </si>
+  <si>
+    <t>PriceMonitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate BBX price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate BBX T4 AVG of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Total Resellers Count of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate BBXWinner of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate LowPriceAlert Count of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Lowest channelPrice of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate LowestChnnlPltform Name of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Amazon price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate newegg price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate bestbuy price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Waltmart price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate bhphotovideo price of TOP 6 Product in Prestage and Mart for last week
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate daily price trend </t>
+  </si>
+  <si>
+    <t>validate reseller price range</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Validate reviews score for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>PRODUCT_WOS</t>
+  </si>
+  <si>
+    <t>PRODUCT_CUSTOMERRATING</t>
+  </si>
+  <si>
+    <t>PRODUCT_REPOOS</t>
+  </si>
+  <si>
+    <t>PRODUCT_BBX%</t>
   </si>
   <si>
     <t xml:space="preserve">Compare last weeks cogs in Prestage and Data Mart
@@ -125,60 +881,6 @@
  </t>
   </si>
   <si>
-    <t>Last Run Date And Time</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>PRODUCT_UNITS</t>
-  </si>
-  <si>
-    <t>PRODUCT_COGS</t>
-  </si>
-  <si>
-    <t>LAST_WEEK_REVENUE</t>
-  </si>
-  <si>
-    <t>LAST_WEEK_UNITS</t>
-  </si>
-  <si>
-    <t>LAST_WEEK_BBX_PCNT</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compare All 4 weeks cogs in Prestage and Data Mart
  </t>
   </si>
@@ -191,180 +893,308 @@
  </t>
   </si>
   <si>
-    <t>LAST_4WEEKS_REVENUE</t>
-  </si>
-  <si>
-    <t>LAST_4WEEKS_UNITS</t>
-  </si>
-  <si>
-    <t>LAST_4WEEKS_BBX_PCNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario  </t>
-  </si>
-  <si>
-    <t>Logical Name/Metric</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>1261187.72</t>
-  </si>
-  <si>
-    <t>7713.0</t>
-  </si>
-  <si>
-    <t>88.11309859154933</t>
-  </si>
-  <si>
-    <t>1261187.7199999997</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>1234785.2399999995</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>1382488.8800000001</t>
-  </si>
-  <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>925732.1399999998</t>
-  </si>
-  <si>
-    <t>7587.0</t>
-  </si>
-  <si>
-    <t>9022.0</t>
-  </si>
-  <si>
-    <t>6485.0</t>
-  </si>
-  <si>
-    <t>1261187.7200000002</t>
-  </si>
-  <si>
-    <t>88.21553488372092</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>05/30/2020 13:48:07</t>
-  </si>
-  <si>
-    <t>B07H1B3PY9</t>
-  </si>
-  <si>
-    <t>174927.28</t>
-  </si>
-  <si>
-    <t>B0002KVQBA</t>
-  </si>
-  <si>
-    <t>106110.6</t>
-  </si>
-  <si>
-    <t>B00378KMEG</t>
-  </si>
-  <si>
-    <t>83846.4</t>
-  </si>
-  <si>
-    <t>B00378KMG4</t>
-  </si>
-  <si>
-    <t>81858.96</t>
-  </si>
-  <si>
-    <t>B00006BMQT</t>
-  </si>
-  <si>
-    <t>55882.2</t>
-  </si>
-  <si>
-    <t>B01LW8H3NX</t>
-  </si>
-  <si>
-    <t>48110.94</t>
-  </si>
-  <si>
-    <t>B002RJLHB8</t>
-  </si>
-  <si>
-    <t>47890.59</t>
-  </si>
-  <si>
-    <t>B00378KMF0</t>
-  </si>
-  <si>
-    <t>36724.6</t>
-  </si>
-  <si>
-    <t>B07QQ87Y6M</t>
-  </si>
-  <si>
-    <t>32340.0</t>
-  </si>
-  <si>
-    <t>B07RN2XNK1</t>
-  </si>
-  <si>
-    <t>28512.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1002.0</t>
-  </si>
-  <si>
-    <t>791.0</t>
-  </si>
-  <si>
-    <t>368.0</t>
-  </si>
-  <si>
-    <t>376.0</t>
-  </si>
-  <si>
-    <t>205.0</t>
-  </si>
-  <si>
-    <t>574.0</t>
-  </si>
-  <si>
-    <t>345.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>05/30/2020 13:48:44</t>
+    <r>
+      <t>Validate change in BBX</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Graph) in prestage and Data mart </t>
+    </r>
+  </si>
+  <si>
+    <t>Validate GV Trend for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>Validate Search Rank for TOP 6 Products in prestage and Data mart</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_GV%</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_RANK</t>
+  </si>
+  <si>
+    <t>LAST_MONTH_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_4MONTH_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_QTR_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_YEAR_REVENUE</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_BRDWISE_REV</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_CATWISE_REV</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_PRDGRPWISE_REV</t>
+  </si>
+  <si>
+    <t>LAST_WEEK_BBXPRICE</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>1160738.0</t>
+  </si>
+  <si>
+    <t>7114.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>133622.72</t>
+  </si>
+  <si>
+    <t>93350.4</t>
+  </si>
+  <si>
+    <t>71780.7</t>
+  </si>
+  <si>
+    <t>57872.58</t>
+  </si>
+  <si>
+    <t>55489.39</t>
+  </si>
+  <si>
+    <t>55440.0</t>
+  </si>
+  <si>
+    <t>804.0</t>
+  </si>
+  <si>
+    <t>876.0</t>
+  </si>
+  <si>
+    <t>680.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>370.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>06/07/2020 00:59:55</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2028653.0</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2473223.0</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2949339.0</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>4466062.0</t>
+  </si>
+  <si>
+    <t>9901853.0</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>3.9985923E7</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>917892.7599999999</t>
+  </si>
+  <si>
+    <t>Denon</t>
+  </si>
+  <si>
+    <t>159483.3</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>45322.770000000004</t>
+  </si>
+  <si>
+    <t>Marantz</t>
+  </si>
+  <si>
+    <t>38039.0</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>751934.0</t>
+  </si>
+  <si>
+    <t>Soundbars</t>
+  </si>
+  <si>
+    <t>222985.0</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>126033.0</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>40879.0</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>14531.0</t>
+  </si>
+  <si>
+    <t>Subwoofer</t>
+  </si>
+  <si>
+    <t>4377.0</t>
+  </si>
+  <si>
+    <t>STRATEGIC</t>
+  </si>
+  <si>
+    <t>435859.48</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>297535.86000000004</t>
+  </si>
+  <si>
+    <t>06/07/2020 01:02:09</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>06/07/2020 01:02:48</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>06/07/2020 01:03:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,8 +1214,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +1262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,22 +1310,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -469,9 +1338,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -481,11 +1348,27 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="130">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -713,6 +1596,986 @@
     <dxf>
       <border outline="0">
         <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
@@ -729,6 +2592,146 @@
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -791,24 +2794,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
-  <autoFilter ref="A1:I16" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3A8BA018-B39C-4DF1-8C77-C621DA9D5CC6}" name="Table24" displayName="Table24" ref="A1:I9" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126">
+  <autoFilter ref="A1:I9" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EFDA0D10-DAB9-4DB5-A509-C9E0D66B0934}" name="TestID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Test Scenario  " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="Logical Name/Metric" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Week" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{9628BC46-B7B8-4319-87FC-7736DF04D7A0}" name="Difference" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{51FA0C3F-3EEF-43DF-B81F-5EB125970849}" name="Status" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{59C24A81-316D-490E-82E1-1E9086BD32DE}" name="TestID" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{85954B43-EA29-43AB-A59B-30EA57514AA4}" name="Module" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{A52F1BF6-17EE-41F5-8B8A-8634FC4C03F6}" name="Test Scenario  " dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{8CD5E6A1-FB12-49C3-9DBF-905FE621680E}" name="Logical Name/Metric" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{9302ACB7-C565-44E6-A63F-AB81D2E8B350}" name="Week" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{E5B76902-EBF9-438B-B84E-42F065193EB5}" name="Prestage Value" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{FD57440E-723C-4CFE-9D0F-233418E2199E}" name="Mart Value" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{DF5B07BF-AA3E-486E-BB9D-CEA43430FFB0}" name="Difference" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{DBE9E75F-6B36-4C5D-95B9-E1970AE4B8EE}" name="Status" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D7EC7D3-B8C5-4CD6-B81E-DD605F1158F5}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I21" xr:uid="{58023CD7-9179-421F-8E4D-220C140C11FD}"/>
   <tableColumns count="9">
@@ -821,6 +2824,150 @@
     <tableColumn id="7" xr3:uid="{DE522374-8968-4FEB-8694-8FE43D09F13F}" name="Mart Value" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{86C8BBD2-1144-4CFF-9F3D-72FBBA7DA20B}" name="Difference" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{AFF141D2-C7D5-4326-9BA4-56B045AB3110}" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD55D255-C2A8-4898-9757-794873DEE3B9}" name="Table2" displayName="Table2" ref="A1:I52" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113">
+  <autoFilter ref="A1:I52" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EFDA0D10-DAB9-4DB5-A509-C9E0D66B0934}" name="TestID" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{A24E5DA9-698A-4F89-A18D-1EA81D723A79}" name="Module" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{38F23A6E-896D-494C-963B-91A84C3F4369}" name="Test Scenario  " dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{AACDA2AC-8595-4777-94BE-3C07FDF41F94}" name="Logical Name/Metric" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{CE46EF65-C67C-4C47-B43D-AC997478A487}" name="Week" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{B6F42A65-D827-448F-AD7C-21D37629A529}" name="Prestage Value" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{5C04FBED-D8D1-41BD-B6FE-DEBA88FA22EC}" name="Mart Value" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{9628BC46-B7B8-4319-87FC-7736DF04D7A0}" name="Difference" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{51FA0C3F-3EEF-43DF-B81F-5EB125970849}" name="Status" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DD3F97A-352B-4E98-997C-E34AA74E6CC2}" name="Table25" displayName="Table25" ref="A1:I26" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100">
+  <autoFilter ref="A1:I26" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{36AA2649-EF9A-4DEF-9FB7-801B613D66C5}" name="TestID" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{B39E050C-158B-450D-BF31-789485A7C61A}" name="Module" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{610BF53D-7640-4F9D-B56C-63B285C964E7}" name="Test Scenario  " dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{B70893DD-06D2-4387-B0E0-F5C42024F818}" name="Logical Name/Metric" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{E19B69D3-744A-4880-8748-B3BD0237FC5D}" name="Week" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{E916EB8D-8C63-4299-B6AC-3377AC9EF78E}" name="Prestage Value" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{A1AE3A5E-EFC3-4AB9-9C7A-D453A0E6BD42}" name="Mart Value" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{1146FE2E-8935-4B9D-BEC0-C1EA80E3D7FA}" name="Difference" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{0938DD74-512F-4F39-BD13-98C843B19986}" name="Status" dataDxfId="91"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0F7BA364-5A6A-4340-8E8C-E1E7AE3F0BF2}" name="Table27" displayName="Table27" ref="A1:I13" totalsRowShown="0" headerRowDxfId="90" dataDxfId="88" headerRowBorderDxfId="89" tableBorderDxfId="87">
+  <autoFilter ref="A1:I13" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CB031EC1-3981-4A88-A8A2-AA9C9C0EE8A2}" name="TestID" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{8B497274-9B6E-4074-9B19-160745EE409D}" name="Module" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{B6C1DADB-6288-42B4-8A09-07BA88C92D9F}" name="Test Scenario  " dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{248D1066-FB13-4B56-904A-9DE04F677184}" name="Logical Name/Metric" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{278A524F-71D7-4F12-ADC8-18C250AC230E}" name="Week" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{D1E26FE3-FAFB-466B-BE58-E734C0FA7A95}" name="Prestage Value" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{249F1B7D-4501-42EC-B6A2-A555848A4802}" name="Mart Value" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{A88E286A-B411-4C05-88EB-A971027776E7}" name="Difference" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{F347B5BE-E45E-472F-9E5A-913CF21AB5EB}" name="Status" dataDxfId="78"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B14F12CA-C300-4E14-8A70-8C490D3EF056}" name="Table278" displayName="Table278" ref="A1:I75" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
+  <autoFilter ref="A1:I75" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{310C4F7A-F07E-457F-B273-3CBE0A5FBCD1}" name="TestID" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{43721EEA-FE7C-41F3-B1AB-74C9222FD78F}" name="Module" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{88879011-F347-4002-8B4E-B99F2D9F16A2}" name="Test Scenario  " dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{917FF14A-7D02-4746-A3DD-95B66AD14C95}" name="Logical Name/Metric" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{D341DB32-8404-491C-A17C-C227B9C2F7A6}" name="Week" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{FCBA78D3-9398-49BD-9907-913FFECEB632}" name="Prestage Value" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{96B39BDA-F8AF-4CB1-AF6C-27F7BC94114A}" name="Mart Value" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{82813639-FE23-44B1-BB1B-CC185EDE37B1}" name="Difference" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{04F65C15-24DB-41C2-85A4-E92EF2F1BFE7}" name="Status" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CA1A055C-7805-4D34-8571-22C8034BC3A3}" name="Table279" displayName="Table279" ref="A1:I26" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
+  <autoFilter ref="A1:I26" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D6C614B-C423-4F3C-9132-ED0D6035CF21}" name="TestID" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{2E82B9F8-1306-4A00-894B-2C0FFF6D9CEF}" name="Module" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{7184D17A-EF29-4628-8915-A1E99511D914}" name="Test Scenario  " dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{062E3F39-63E9-4C8C-96B4-7D01C26023E0}" name="Logical Name/Metric" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{8734F163-154D-4FA3-BA16-B8B5B1054024}" name="Week" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{5E68BF4F-A9F4-4AB7-A1A8-FC7FC5300134}" name="Prestage Value" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{4E016F41-0119-49DF-B916-F591ADB772E8}" name="Mart Value" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{7484B0F7-C193-4E49-8429-EB8167C34681}" name="Difference" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{A56A739B-2284-4885-97B9-1D85084F5BC5}" name="Status" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0E658645-6290-43EB-BAB4-FD22EF5A41D4}" name="Table27910" displayName="Table27910" ref="A1:I54" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+  <autoFilter ref="A1:I54" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C1DD0CE2-DF3E-4C31-8FCB-582DD0940248}" name="TestID" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{FBFA1D1D-976E-425C-B506-914931292257}" name="Module" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{5FDD737F-B40C-4394-9222-D423438DF328}" name="Test Scenario  " dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{77CDF5D7-D9C5-4ECD-9DBF-2B6241705405}" name="Logical Name/Metric" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{35BB1086-DB5C-4908-838B-09A7976B6734}" name="Week" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{FCC9BB14-A62A-41C9-AA1F-66370FB51F38}" name="Prestage Value" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{F726DDCC-D8B3-474D-A6EC-1BE65604B9F4}" name="Mart Value" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{E769F898-26A2-4854-A1EC-1DBCA719E92E}" name="Difference" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{3B6301AB-2946-430D-8AF3-C2D5A0143712}" name="Status" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6AAE0E7E-65F3-4BD5-8C0A-B6EEAFE4E51E}" name="Table2791011" displayName="Table2791011" ref="A1:I54" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+  <autoFilter ref="A1:I54" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{83D7FCFA-AA7A-4769-A288-FBA99B3FA7FC}" name="TestID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{F833AB8B-5F2A-42CA-97F1-FD6A0BDED164}" name="Module" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{BFE9BF93-CE95-4756-ABD0-4C8317F9A670}" name="Test Scenario  " dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{B9F38F53-E76F-4929-8CD9-2D7A47A5C580}" name="Logical Name/Metric" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{F43156AE-2E38-4E99-B9B2-1DB048DCE05E}" name="Week" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{EE91FCAB-B1BB-47C9-89B0-53EF69785BFC}" name="Prestage Value" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{05F7D19C-EDF6-4641-BAF8-737FBA2B5820}" name="Mart Value" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{8393EE5B-8E58-4188-AAE8-6773A0796F2E}" name="Difference" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{6251F3D3-1686-47D9-B25C-62A8EA11B7A3}" name="Status" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0B78FC7F-74CF-44D9-866E-E46D4F51A928}" name="Table279101112" displayName="Table279101112" ref="A1:I3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A1:I3" xr:uid="{2CB686C0-B5D9-45FA-9C71-84AF96746E12}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EA4E6ADF-9FE7-4D26-9FC3-B54F9BCAFC17}" name="TestID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{CD5D55DC-40EA-412F-B958-BC20E6AB7105}" name="Module" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{37B75ADA-5251-47BC-AB2F-11F510852FA3}" name="Test Scenario  " dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B3928855-C732-4B6D-BBFC-8141E6359360}" name="Logical Name/Metric" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{FF8006CF-53D9-4E25-A45C-5D5E14E9A7D6}" name="Week" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{BBB97EA8-4DD8-484D-87C2-46D8CB199D1E}" name="Prestage Value" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{908CEB4F-CD11-4A57-87D6-FF6586327E7B}" name="Mart Value" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{32F72831-934A-4743-B76F-DB700E2EA14C}" name="Difference" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{61BC8E74-64C3-430B-8EB8-7E91CA3B17C1}" name="Status" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1147,69 +3294,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="48.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,174 +3433,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I16"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B3D505-1B86-42D1-BFCB-50043B0048D3}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="8.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="58.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="28.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="9.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-2.3283064365386963E-10</v>
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.10243629217158912</v>
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1400,261 +3708,1885 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA1EB5E-A204-4949-9249-866B19DC94FF}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
+        <v>211</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" t="s">
+        <v>234</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1675,110 +5607,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CDF417-2215-4E0A-8781-4759D2E17EB9}">
-  <dimension ref="A1:I21"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047F5092-0239-4C1E-B74B-3BC66828683D}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="60.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="23.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="12.85546875" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1786,45 +5724,45 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1832,371 +5770,512 @@
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
+        <v>240</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
+        <v>242</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
+        <v>244</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
+        <v>246</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
+        <v>249</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
+        <v>251</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+        <v>253</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
+        <v>255</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
+        <v>257</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
+        <v>259</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
+        <v>261</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
+        <v>263</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0</v>
+        <v>265</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2206,4 +6285,3661 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E21439-4602-43D9-8AD4-A28D120C2B07}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D8EF67-462A-4E5D-A512-4E2A231438FF}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="2"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0EFA44-F850-4625-96CC-ADEC3920FE9F}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08C5766-9AB3-44A4-9E40-BF8A24880A15}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953D2803-0EAD-4292-B350-B0611BDD867B}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>